--- a/variant_22/Задание 18/18.xlsx
+++ b/variant_22/Задание 18/18.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Admin\Desktop\Варианты\12 вариант\Файлы\Задание 18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,8 +37,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,6 +57,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEDEDED"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -69,10 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -133,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -168,7 +178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -345,7 +355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,15 +363,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>51</v>
       </c>
@@ -396,7 +410,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>57</v>
       </c>
@@ -428,10 +442,48 @@
         <v>58</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L11" si="0" xml:space="preserve"> A1 + MAX(L1,K2)</f>
+        <v>51</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M11" si="1" xml:space="preserve"> B1 + MAX(M1,L2)</f>
+        <v>72</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N11" si="2" xml:space="preserve"> C1 + MAX(N1,M2)</f>
+        <v>165</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O11" si="3" xml:space="preserve"> D1 + MAX(O1,N2)</f>
+        <v>213</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:P11" si="4" xml:space="preserve"> E1 + MAX(P1,O2)</f>
+        <v>258</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" ref="Q2:Q11" si="5" xml:space="preserve"> F1 + MAX(Q1,P2)</f>
+        <v>358</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" ref="R2:R11" si="6" xml:space="preserve"> G1 + MAX(R1,Q2)</f>
+        <v>425</v>
+      </c>
+      <c r="S2" s="1">
+        <f t="shared" ref="S2:S11" si="7" xml:space="preserve"> H1 + MAX(S1,R2)</f>
+        <v>464</v>
+      </c>
+      <c r="T2" s="1">
+        <f t="shared" ref="T2:T11" si="8" xml:space="preserve"> I1 + MAX(T1,S2)</f>
+        <v>482</v>
+      </c>
+      <c r="U2" s="1">
+        <f t="shared" ref="U2:U10" si="9" xml:space="preserve"> J1 + MAX(U1,T2)</f>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>63</v>
       </c>
@@ -463,10 +515,48 @@
         <v>67</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="3"/>
+        <v>313</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="5"/>
+        <v>415</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="6"/>
+        <v>518</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="7"/>
+        <v>550</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="8"/>
+        <v>569</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="9"/>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -498,10 +588,48 @@
         <v>69</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="3"/>
+        <v>329</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="4"/>
+        <v>483</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="5"/>
+        <v>571</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="6"/>
+        <v>661</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="7"/>
+        <v>733</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="8"/>
+        <v>770</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="9"/>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>99</v>
       </c>
@@ -533,10 +661,48 @@
         <v>65</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="3"/>
+        <v>382</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="4"/>
+        <v>579</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="5"/>
+        <v>629</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="6"/>
+        <v>742</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="7"/>
+        <v>807</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="8"/>
+        <v>898</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="9"/>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>35</v>
       </c>
@@ -568,10 +734,48 @@
         <v>2</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="3"/>
+        <v>459</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="4"/>
+        <v>619</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="5"/>
+        <v>705</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="6"/>
+        <v>760</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="7"/>
+        <v>841</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="8"/>
+        <v>903</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="9"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -603,10 +807,48 @@
         <v>1</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>342</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>523</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="4"/>
+        <v>683</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="5"/>
+        <v>743</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="6"/>
+        <v>822</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="7"/>
+        <v>897</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="8"/>
+        <v>913</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="9"/>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -638,10 +880,48 @@
         <v>39</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>415</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>472</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="3"/>
+        <v>626</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="4"/>
+        <v>734</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="5"/>
+        <v>776</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="6"/>
+        <v>922</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="7"/>
+        <v>933</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="8"/>
+        <v>986</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="9"/>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>22</v>
       </c>
@@ -673,10 +953,48 @@
         <v>34</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>426</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>551</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="3"/>
+        <v>672</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="4"/>
+        <v>771</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="5"/>
+        <v>845</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="6"/>
+        <v>1002</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="7"/>
+        <v>1033</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="8"/>
+        <v>1058</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="9"/>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -708,10 +1026,48 @@
         <v>33</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>622</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>642</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="3"/>
+        <v>695</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="4"/>
+        <v>782</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="5"/>
+        <v>857</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="6"/>
+        <v>1041</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="7"/>
+        <v>1057</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="8"/>
+        <v>1122</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="9"/>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -723,10 +1079,48 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>647</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>734</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="3"/>
+        <v>818</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="4"/>
+        <v>848</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="5"/>
+        <v>905</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="6"/>
+        <v>1118</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="7"/>
+        <v>1131</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="8"/>
+        <v>1171</v>
+      </c>
+      <c r="U11" s="3">
+        <f xml:space="preserve"> J10 + MAX(U10,T11)</f>
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -741,7 +1135,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -753,10 +1147,427 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13:L22" si="10" xml:space="preserve"> A1 + MIN(L12,K13)</f>
+        <v>51</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" ref="M13:M22" si="11" xml:space="preserve"> B1 + MIN(M12,L13)</f>
+        <v>72</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" ref="N13:N22" si="12" xml:space="preserve"> C1 + MIN(N12,M13)</f>
+        <v>165</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" ref="O13:O22" si="13" xml:space="preserve"> D1 + MIN(O12,N13)</f>
+        <v>213</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" ref="P13:P22" si="14" xml:space="preserve"> E1 + MIN(P12,O13)</f>
+        <v>258</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" ref="Q13:Q22" si="15" xml:space="preserve"> F1 + MIN(Q12,P13)</f>
+        <v>358</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" ref="R13:R22" si="16" xml:space="preserve"> G1 + MIN(R12,Q13)</f>
+        <v>425</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" ref="S13:S22" si="17" xml:space="preserve"> H1 + MIN(S12,R13)</f>
+        <v>464</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" ref="T13:T22" si="18" xml:space="preserve"> I1 + MIN(T12,S13)</f>
+        <v>482</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" ref="U13:U21" si="19" xml:space="preserve"> J1 + MIN(U12,T13)</f>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="12"/>
+        <v>212</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="13"/>
+        <v>263</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="15"/>
+        <v>360</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="16"/>
+        <v>453</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="17"/>
+        <v>485</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="18"/>
+        <v>501</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="19"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <f t="shared" si="10"/>
+        <v>171</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="11"/>
+        <v>131</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="12"/>
+        <v>162</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="13"/>
+        <v>178</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="15"/>
+        <v>344</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="16"/>
+        <v>434</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="17"/>
+        <v>506</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="18"/>
+        <v>538</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="19"/>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <f t="shared" si="10"/>
+        <v>181</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="11"/>
+        <v>188</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="12"/>
+        <v>226</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="13"/>
+        <v>203</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="14"/>
+        <v>299</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="15"/>
+        <v>349</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="16"/>
+        <v>430</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="17"/>
+        <v>495</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="18"/>
+        <v>586</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="19"/>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <f t="shared" si="10"/>
+        <v>280</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="11"/>
+        <v>231</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="12"/>
+        <v>321</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="15"/>
+        <v>326</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="16"/>
+        <v>344</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="17"/>
+        <v>378</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="18"/>
+        <v>383</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="19"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="12"/>
+        <v>321</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="13"/>
+        <v>287</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="14"/>
+        <v>314</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="15"/>
+        <v>352</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="16"/>
+        <v>406</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="17"/>
+        <v>434</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="18"/>
+        <v>393</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="19"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <f t="shared" si="10"/>
+        <v>415</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="11"/>
+        <v>307</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="12"/>
+        <v>334</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="13"/>
+        <v>313</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="14"/>
+        <v>364</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="15"/>
+        <v>385</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="16"/>
+        <v>485</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="17"/>
+        <v>445</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="18"/>
+        <v>446</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="19"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <f t="shared" si="10"/>
+        <v>426</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="11"/>
+        <v>386</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="12"/>
+        <v>383</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="13"/>
+        <v>359</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="14"/>
+        <v>396</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="15"/>
+        <v>454</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="16"/>
+        <v>534</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="17"/>
+        <v>476</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="18"/>
+        <v>471</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="19"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <f t="shared" si="10"/>
+        <v>448</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="11"/>
+        <v>457</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="12"/>
+        <v>403</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="13"/>
+        <v>382</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="14"/>
+        <v>393</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="15"/>
+        <v>405</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="16"/>
+        <v>444</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="17"/>
+        <v>460</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="18"/>
+        <v>524</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="19"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <f t="shared" si="10"/>
+        <v>452</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="11"/>
+        <v>477</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="12"/>
+        <v>490</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="13"/>
+        <v>466</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="14"/>
+        <v>423</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="15"/>
+        <v>453</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="16"/>
+        <v>521</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="17"/>
+        <v>473</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="18"/>
+        <v>513</v>
+      </c>
+      <c r="U22" s="3">
+        <f xml:space="preserve"> J10 + MIN(U21,T22)</f>
+        <v>502</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/variant_22/Задание 18/18.xlsx
+++ b/variant_22/Задание 18/18.xlsx
@@ -355,7 +355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -366,7 +366,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,34 +377,34 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
         <v>48</v>
       </c>
       <c r="E1" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1">
         <v>100</v>
       </c>
       <c r="G1" s="1">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1">
         <v>18</v>
       </c>
       <c r="J1" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -412,16 +412,16 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>92</v>
@@ -430,13 +430,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>32</v>
       </c>
       <c r="I2" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
         <v>58</v>
@@ -444,54 +444,54 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1">
         <f t="shared" ref="L2:L11" si="0" xml:space="preserve"> A1 + MAX(L1,K2)</f>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:M11" si="1" xml:space="preserve"> B1 + MAX(M1,L2)</f>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" ref="N2:N11" si="2" xml:space="preserve"> C1 + MAX(N1,M2)</f>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" ref="O2:O11" si="3" xml:space="preserve"> D1 + MAX(O1,N2)</f>
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P11" si="4" xml:space="preserve"> E1 + MAX(P1,O2)</f>
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" ref="Q2:Q11" si="5" xml:space="preserve"> F1 + MAX(Q1,P2)</f>
-        <v>358</v>
+        <v>148</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R11" si="6" xml:space="preserve"> G1 + MAX(R1,Q2)</f>
-        <v>425</v>
+        <v>148</v>
       </c>
       <c r="S2" s="1">
         <f t="shared" ref="S2:S11" si="7" xml:space="preserve"> H1 + MAX(S1,R2)</f>
-        <v>464</v>
+        <v>148</v>
       </c>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T11" si="8" xml:space="preserve"> I1 + MAX(T1,S2)</f>
-        <v>482</v>
+        <v>166</v>
       </c>
       <c r="U2" s="1">
         <f t="shared" ref="U2:U10" si="9" xml:space="preserve"> J1 + MAX(U1,T2)</f>
-        <v>511</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>16</v>
@@ -509,51 +509,51 @@
         <v>72</v>
       </c>
       <c r="I3" s="1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="2"/>
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="3"/>
-        <v>313</v>
+        <v>48</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="4"/>
-        <v>405</v>
+        <v>140</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="5"/>
-        <v>415</v>
+        <v>158</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="6"/>
-        <v>518</v>
+        <v>158</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" si="7"/>
-        <v>550</v>
+        <v>190</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" si="8"/>
-        <v>569</v>
+        <v>190</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" si="9"/>
-        <v>627</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -561,13 +561,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>64</v>
       </c>
       <c r="D4" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>96</v>
@@ -576,71 +576,71 @@
         <v>50</v>
       </c>
       <c r="G4" s="1">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="1"/>
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="2"/>
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="3"/>
-        <v>329</v>
+        <v>64</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="4"/>
-        <v>483</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="5"/>
-        <v>571</v>
+        <v>306</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="6"/>
-        <v>661</v>
+        <v>396</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="7"/>
-        <v>733</v>
+        <v>468</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="8"/>
-        <v>770</v>
+        <v>468</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="9"/>
-        <v>837</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -655,65 +655,65 @@
         <v>34</v>
       </c>
       <c r="I5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="3"/>
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="4"/>
-        <v>579</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="5"/>
-        <v>629</v>
+        <v>364</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="6"/>
-        <v>742</v>
+        <v>396</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="7"/>
-        <v>807</v>
+        <v>468</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="8"/>
-        <v>898</v>
+        <v>468</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="9"/>
-        <v>967</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>64</v>
@@ -736,43 +736,43 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="3"/>
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="4"/>
-        <v>619</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="5"/>
-        <v>705</v>
+        <v>440</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="6"/>
-        <v>760</v>
+        <v>458</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="7"/>
-        <v>841</v>
+        <v>502</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="8"/>
-        <v>903</v>
+        <v>502</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="9"/>
-        <v>1032</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -780,145 +780,145 @@
         <v>100</v>
       </c>
       <c r="B7" s="1">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>26</v>
       </c>
       <c r="E7" s="1">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
       </c>
       <c r="H7" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>10</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="2"/>
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="4"/>
-        <v>683</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="5"/>
-        <v>743</v>
+        <v>478</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="6"/>
-        <v>822</v>
+        <v>540</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="7"/>
-        <v>897</v>
+        <v>596</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="8"/>
-        <v>913</v>
+        <v>606</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="9"/>
-        <v>1034</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>46</v>
       </c>
       <c r="E8" s="1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>80</v>
       </c>
       <c r="H8" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>110</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>472</v>
+        <v>110</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="2"/>
-        <v>550</v>
+        <v>110</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="3"/>
-        <v>626</v>
+        <v>136</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="4"/>
-        <v>734</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="5"/>
-        <v>776</v>
+        <v>478</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="6"/>
-        <v>922</v>
+        <v>640</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="7"/>
-        <v>933</v>
+        <v>640</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="8"/>
-        <v>986</v>
+        <v>640</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="9"/>
-        <v>1035</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>12</v>
       </c>
       <c r="G9" s="1">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>16</v>
@@ -955,43 +955,43 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>110</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>551</v>
+        <v>110</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="3"/>
-        <v>672</v>
+        <v>182</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="4"/>
-        <v>771</v>
+        <v>418</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="5"/>
-        <v>845</v>
+        <v>478</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="6"/>
-        <v>1002</v>
+        <v>720</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="7"/>
-        <v>1033</v>
+        <v>720</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="8"/>
-        <v>1058</v>
+        <v>720</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="9"/>
-        <v>1097</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -999,10 +999,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>84</v>
@@ -1014,57 +1014,57 @@
         <v>48</v>
       </c>
       <c r="G10" s="1">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>40</v>
       </c>
       <c r="J10" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>132</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>622</v>
+        <v>132</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="2"/>
-        <v>642</v>
+        <v>152</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="3"/>
-        <v>695</v>
+        <v>182</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="4"/>
-        <v>782</v>
+        <v>418</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="5"/>
-        <v>857</v>
+        <v>490</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="6"/>
-        <v>1041</v>
+        <v>720</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="7"/>
-        <v>1057</v>
+        <v>736</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="8"/>
-        <v>1122</v>
+        <v>800</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="9"/>
-        <v>1156</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1081,489 +1081,869 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>136</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>647</v>
+        <v>136</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="2"/>
-        <v>734</v>
+        <v>152</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="3"/>
-        <v>818</v>
+        <v>266</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="4"/>
-        <v>848</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="5"/>
-        <v>905</v>
+        <v>538</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="6"/>
-        <v>1118</v>
+        <v>720</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="7"/>
-        <v>1131</v>
+        <v>736</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="8"/>
-        <v>1171</v>
+        <v>840</v>
       </c>
       <c r="U11" s="3">
         <f xml:space="preserve"> J10 + MAX(U10,T11)</f>
-        <v>1204</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="1">
+        <f>IF(MOD(A1,2)=0,A1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <f>IF(MOD(B1,2)=0,B1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12:J12" si="10">IF(MOD(C1,2)=0,C1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="A13" s="1">
+        <f t="shared" ref="A13" si="11">IF(MOD(A2,2)=0,A2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" ref="B13:J13" si="12">IF(MOD(B2,2)=0,B2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="12"/>
+        <v>92</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="12"/>
+        <v>58</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <f t="shared" ref="L13:L22" si="10" xml:space="preserve"> A1 + MIN(L12,K13)</f>
-        <v>51</v>
+        <f t="shared" ref="L13:L22" si="13" xml:space="preserve"> A1 + MIN(L12,K13)</f>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" ref="M13:M22" si="11" xml:space="preserve"> B1 + MIN(M12,L13)</f>
+        <f t="shared" ref="M13:M22" si="14" xml:space="preserve"> B1 + MIN(M12,L13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" ref="N13:N22" si="15" xml:space="preserve"> C1 + MIN(N12,M13)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" ref="O13:O22" si="16" xml:space="preserve"> D1 + MIN(O12,N13)</f>
+        <v>48</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" ref="P13:P22" si="17" xml:space="preserve"> E1 + MIN(P12,O13)</f>
+        <v>48</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" ref="Q13:Q22" si="18" xml:space="preserve"> F1 + MIN(Q12,P13)</f>
+        <v>148</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" ref="R13:R22" si="19" xml:space="preserve"> G1 + MIN(R12,Q13)</f>
+        <v>148</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" ref="S13:S22" si="20" xml:space="preserve"> H1 + MIN(S12,R13)</f>
+        <v>148</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" ref="T13:T22" si="21" xml:space="preserve"> I1 + MIN(T12,S13)</f>
+        <v>166</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" ref="U13:U21" si="22" xml:space="preserve"> J1 + MIN(U12,T13)</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" ref="A14" si="23">IF(MOD(A3,2)=0,A3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:J14" si="24">IF(MOD(B3,2)=0,B3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="24"/>
+        <v>78</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="24"/>
+        <v>88</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="24"/>
+        <v>90</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="24"/>
         <v>72</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" ref="N13:N22" si="12" xml:space="preserve"> C1 + MIN(N12,M13)</f>
-        <v>165</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" ref="O13:O22" si="13" xml:space="preserve"> D1 + MIN(O12,N13)</f>
-        <v>213</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" ref="P13:P22" si="14" xml:space="preserve"> E1 + MIN(P12,O13)</f>
-        <v>258</v>
-      </c>
-      <c r="Q13" s="1">
-        <f t="shared" ref="Q13:Q22" si="15" xml:space="preserve"> F1 + MIN(Q12,P13)</f>
-        <v>358</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" ref="R13:R22" si="16" xml:space="preserve"> G1 + MIN(R12,Q13)</f>
-        <v>425</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" ref="S13:S22" si="17" xml:space="preserve"> H1 + MIN(S12,R13)</f>
-        <v>464</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" ref="T13:T22" si="18" xml:space="preserve"> I1 + MIN(T12,S13)</f>
-        <v>482</v>
-      </c>
-      <c r="U13" s="1">
-        <f t="shared" ref="U13:U21" si="19" xml:space="preserve"> J1 + MIN(U12,T13)</f>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="L14" s="1">
-        <f t="shared" si="10"/>
-        <v>108</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="11"/>
-        <v>115</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="12"/>
-        <v>212</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="17"/>
+        <v>92</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="18"/>
+        <v>102</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="19"/>
+        <v>102</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="20"/>
+        <v>134</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="21"/>
+        <v>134</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="22"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" ref="A15" si="25">IF(MOD(A4,2)=0,A4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:J15" si="26">IF(MOD(B4,2)=0,B4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="26"/>
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="26"/>
+        <v>96</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="13"/>
-        <v>263</v>
-      </c>
-      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="14"/>
-        <v>350</v>
-      </c>
-      <c r="Q14" s="1">
+        <v>16</v>
+      </c>
+      <c r="N15" s="1">
         <f t="shared" si="15"/>
-        <v>360</v>
-      </c>
-      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="16"/>
-        <v>453</v>
-      </c>
-      <c r="S14" s="1">
+        <v>16</v>
+      </c>
+      <c r="P15" s="1">
         <f t="shared" si="17"/>
-        <v>485</v>
-      </c>
-      <c r="T14" s="1">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="1">
         <f t="shared" si="18"/>
-        <v>501</v>
-      </c>
-      <c r="U14" s="1">
+        <v>182</v>
+      </c>
+      <c r="R15" s="1">
         <f t="shared" si="19"/>
-        <v>559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L15" s="1">
-        <f t="shared" si="10"/>
-        <v>171</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="11"/>
-        <v>131</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="12"/>
+        <v>192</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="20"/>
+        <v>206</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="21"/>
+        <v>134</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="22"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" ref="A16" si="27">IF(MOD(A5,2)=0,A5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:J16" si="28">IF(MOD(B5,2)=0,B5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="28"/>
+        <v>40</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="28"/>
+        <v>76</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="28"/>
+        <v>18</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="28"/>
+        <v>34</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="15"/>
+        <v>64</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="17"/>
+        <v>112</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="18"/>
         <v>162</v>
       </c>
-      <c r="O15" s="1">
+      <c r="R16" s="1">
+        <f t="shared" si="19"/>
+        <v>162</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="20"/>
+        <v>162</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="21"/>
+        <v>134</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="22"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" ref="A17" si="29">IF(MOD(A6,2)=0,A6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" ref="B17:J17" si="30">IF(MOD(B6,2)=0,B6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="30"/>
+        <v>64</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="30"/>
+        <v>38</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="30"/>
+        <v>62</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="30"/>
+        <v>56</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="18"/>
+        <v>126</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="19"/>
+        <v>144</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="20"/>
         <v>178</v>
       </c>
-      <c r="P15" s="1">
+      <c r="T17" s="1">
+        <f t="shared" si="21"/>
+        <v>134</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="22"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" ref="A18" si="31">IF(MOD(A7,2)=0,A7,0)</f>
+        <v>100</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:J18" si="32">IF(MOD(B7,2)=0,B7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="32"/>
+        <v>26</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="M18" s="1">
         <f t="shared" si="14"/>
-        <v>256</v>
-      </c>
-      <c r="Q15" s="1">
+        <v>10</v>
+      </c>
+      <c r="N18" s="1">
         <f t="shared" si="15"/>
-        <v>344</v>
-      </c>
-      <c r="R15" s="1">
+        <v>10</v>
+      </c>
+      <c r="O18" s="1">
         <f t="shared" si="16"/>
-        <v>434</v>
-      </c>
-      <c r="S15" s="1">
+        <v>10</v>
+      </c>
+      <c r="P18" s="1">
         <f t="shared" si="17"/>
-        <v>506</v>
-      </c>
-      <c r="T15" s="1">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="1">
         <f t="shared" si="18"/>
-        <v>538</v>
-      </c>
-      <c r="U15" s="1">
+        <v>112</v>
+      </c>
+      <c r="R18" s="1">
         <f t="shared" si="19"/>
-        <v>605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L16" s="1">
-        <f t="shared" si="10"/>
-        <v>181</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="11"/>
-        <v>188</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="12"/>
-        <v>226</v>
-      </c>
-      <c r="O16" s="1">
+        <v>174</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="20"/>
+        <v>230</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="21"/>
+        <v>144</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="22"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" ref="A19" si="33">IF(MOD(A8,2)=0,A8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" ref="B19:J19" si="34">IF(MOD(B8,2)=0,B8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="34"/>
+        <v>46</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="34"/>
+        <v>80</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
         <f t="shared" si="13"/>
-        <v>203</v>
-      </c>
-      <c r="P16" s="1">
+        <v>110</v>
+      </c>
+      <c r="M19" s="1">
         <f t="shared" si="14"/>
-        <v>299</v>
-      </c>
-      <c r="Q16" s="1">
+        <v>10</v>
+      </c>
+      <c r="N19" s="1">
         <f t="shared" si="15"/>
-        <v>349</v>
-      </c>
-      <c r="R16" s="1">
+        <v>10</v>
+      </c>
+      <c r="O19" s="1">
         <f t="shared" si="16"/>
-        <v>430</v>
-      </c>
-      <c r="S16" s="1">
+        <v>36</v>
+      </c>
+      <c r="P19" s="1">
         <f t="shared" si="17"/>
-        <v>495</v>
-      </c>
-      <c r="T16" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="1">
         <f t="shared" si="18"/>
-        <v>586</v>
-      </c>
-      <c r="U16" s="1">
+        <v>36</v>
+      </c>
+      <c r="R19" s="1">
         <f t="shared" si="19"/>
-        <v>655</v>
-      </c>
-    </row>
-    <row r="17" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L17" s="1">
-        <f t="shared" si="10"/>
-        <v>280</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="11"/>
-        <v>231</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="12"/>
-        <v>321</v>
-      </c>
-      <c r="O17" s="1">
+        <v>136</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="20"/>
+        <v>136</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="21"/>
+        <v>136</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="22"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" ref="A20" si="35">IF(MOD(A9,2)=0,A9,0)</f>
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" ref="B20:J20" si="36">IF(MOD(B9,2)=0,B9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="36"/>
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="36"/>
+        <v>12</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="36"/>
+        <v>16</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="36"/>
+        <v>64</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="36"/>
+        <v>34</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="13"/>
-        <v>210</v>
-      </c>
-      <c r="P17" s="1">
+        <v>110</v>
+      </c>
+      <c r="M20" s="1">
         <f t="shared" si="14"/>
-        <v>250</v>
-      </c>
-      <c r="Q17" s="1">
+        <v>10</v>
+      </c>
+      <c r="N20" s="1">
         <f t="shared" si="15"/>
-        <v>326</v>
-      </c>
-      <c r="R17" s="1">
+        <v>10</v>
+      </c>
+      <c r="O20" s="1">
         <f t="shared" si="16"/>
-        <v>344</v>
-      </c>
-      <c r="S17" s="1">
+        <v>56</v>
+      </c>
+      <c r="P20" s="1">
         <f t="shared" si="17"/>
-        <v>378</v>
-      </c>
-      <c r="T17" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="1">
         <f t="shared" si="18"/>
-        <v>383</v>
-      </c>
-      <c r="U17" s="1">
+        <v>36</v>
+      </c>
+      <c r="R20" s="1">
         <f t="shared" si="19"/>
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L18" s="1">
-        <f t="shared" si="10"/>
-        <v>315</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" si="11"/>
-        <v>250</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="12"/>
-        <v>321</v>
-      </c>
-      <c r="O18" s="1">
+        <v>116</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="20"/>
+        <v>116</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="21"/>
+        <v>116</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="22"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" ref="A21" si="37">IF(MOD(A10,2)=0,A10,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:J21" si="38">IF(MOD(B10,2)=0,B10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="38"/>
+        <v>84</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="38"/>
+        <v>30</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="38"/>
+        <v>48</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="38"/>
+        <v>40</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" si="13"/>
-        <v>287</v>
-      </c>
-      <c r="P18" s="1">
+        <v>132</v>
+      </c>
+      <c r="M21" s="1">
         <f t="shared" si="14"/>
-        <v>314</v>
-      </c>
-      <c r="Q18" s="1">
+        <v>10</v>
+      </c>
+      <c r="N21" s="1">
         <f t="shared" si="15"/>
-        <v>352</v>
-      </c>
-      <c r="R18" s="1">
+        <v>30</v>
+      </c>
+      <c r="O21" s="1">
         <f t="shared" si="16"/>
-        <v>406</v>
-      </c>
-      <c r="S18" s="1">
+        <v>30</v>
+      </c>
+      <c r="P21" s="1">
         <f t="shared" si="17"/>
-        <v>434</v>
-      </c>
-      <c r="T18" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="1">
         <f t="shared" si="18"/>
-        <v>393</v>
-      </c>
-      <c r="U18" s="1">
+        <v>42</v>
+      </c>
+      <c r="R21" s="1">
         <f t="shared" si="19"/>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L19" s="1">
-        <f t="shared" si="10"/>
-        <v>415</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="11"/>
-        <v>307</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="12"/>
-        <v>334</v>
-      </c>
-      <c r="O19" s="1">
+        <v>42</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="20"/>
+        <v>58</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="21"/>
+        <v>122</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="22"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
         <f t="shared" si="13"/>
-        <v>313</v>
-      </c>
-      <c r="P19" s="1">
+        <v>136</v>
+      </c>
+      <c r="M22" s="1">
         <f t="shared" si="14"/>
-        <v>364</v>
-      </c>
-      <c r="Q19" s="1">
+        <v>10</v>
+      </c>
+      <c r="N22" s="1">
         <f t="shared" si="15"/>
-        <v>385</v>
-      </c>
-      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="O22" s="1">
         <f t="shared" si="16"/>
-        <v>485</v>
-      </c>
-      <c r="S19" s="1">
+        <v>94</v>
+      </c>
+      <c r="P22" s="1">
         <f t="shared" si="17"/>
-        <v>445</v>
-      </c>
-      <c r="T19" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="1">
         <f t="shared" si="18"/>
-        <v>446</v>
-      </c>
-      <c r="U19" s="1">
+        <v>90</v>
+      </c>
+      <c r="R22" s="1">
         <f t="shared" si="19"/>
-        <v>396</v>
-      </c>
-    </row>
-    <row r="20" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L20" s="1">
-        <f t="shared" si="10"/>
-        <v>426</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="11"/>
-        <v>386</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="12"/>
-        <v>383</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="13"/>
-        <v>359</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="14"/>
-        <v>396</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="15"/>
-        <v>454</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="16"/>
-        <v>534</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="17"/>
-        <v>476</v>
-      </c>
-      <c r="T20" s="1">
-        <f t="shared" si="18"/>
-        <v>471</v>
-      </c>
-      <c r="U20" s="1">
-        <f t="shared" si="19"/>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L21" s="1">
-        <f t="shared" si="10"/>
-        <v>448</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="11"/>
-        <v>457</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="12"/>
-        <v>403</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="13"/>
-        <v>382</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="14"/>
-        <v>393</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="15"/>
-        <v>405</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="16"/>
-        <v>444</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="17"/>
-        <v>460</v>
-      </c>
-      <c r="T21" s="1">
-        <f t="shared" si="18"/>
-        <v>524</v>
-      </c>
-      <c r="U21" s="1">
-        <f t="shared" si="19"/>
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L22" s="1">
-        <f t="shared" si="10"/>
-        <v>452</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="11"/>
-        <v>477</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="12"/>
-        <v>490</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" si="13"/>
-        <v>466</v>
-      </c>
-      <c r="P22" s="1">
-        <f t="shared" si="14"/>
-        <v>423</v>
-      </c>
-      <c r="Q22" s="1">
-        <f t="shared" si="15"/>
-        <v>453</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="16"/>
-        <v>521</v>
+        <v>42</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="17"/>
-        <v>473</v>
+        <f t="shared" si="20"/>
+        <v>42</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="18"/>
-        <v>513</v>
+        <f t="shared" si="21"/>
+        <v>82</v>
       </c>
       <c r="U22" s="3">
         <f xml:space="preserve"> J10 + MIN(U21,T22)</f>
-        <v>502</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
